--- a/assets/excel/2021_8-1-1.xlsx
+++ b/assets/excel/2021_8-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6499BB76-F808-4E9A-B2D1-6DBA070B5A18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074EA85-23FA-45BE-B0E2-D2B86384DE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14010" xr2:uid="{3ED27CCD-7831-47CD-9649-40DDA4FF2B68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -99,6 +99,12 @@
   <si>
     <t>1 000</t>
   </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
+  </si>
+  <si>
+    <t>3) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes:</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +116,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;5]&quot;-&quot;;[&lt;10]\(0.0\);#\ ###.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +160,20 @@
       <color theme="1"/>
       <name val="NDSFrutiger 45 Light"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="6"/>
+      <color theme="10"/>
+      <name val="NDSFrutiger 45 Light"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -327,11 +347,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -454,6 +475,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,26 +505,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Link 2" xfId="2" xr:uid="{8C712CB7-A698-4BFB-A344-D805BA2D57AA}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_Tabelle_A_6_HT" xfId="1" xr:uid="{2CFE44AD-1037-4D6A-B68D-718D552FDBB1}"/>
   </cellStyles>
@@ -809,10 +840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F150A0D7-5577-4BEA-A4C0-1815A7A8D6E5}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:L189"/>
+  <dimension ref="B1:L191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,28 +899,28 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:12" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
@@ -912,18 +943,18 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="52" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -2238,83 +2269,107 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
-    <row r="57" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42" t="s">
+    <row r="57" spans="2:11" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+    <row r="59" spans="2:11" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="8"/>
+    </row>
+    <row r="61" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+    </row>
+    <row r="62" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="8"/>
-    </row>
-    <row r="61" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="C62" s="30"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+    </row>
+    <row r="63" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="70" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
@@ -2424,24 +2479,47 @@
     <row r="174" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="175" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="176" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="177" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="178" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="179" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="180" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="181" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="182" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="183" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="184" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="185" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="186" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="187" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="188" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
-    <row r="189" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="2:10" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+    </row>
   </sheetData>
   <sortState ref="B10:I54">
     <sortCondition descending="1" ref="C10:C54"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B59:J59"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B57:J57"/>
     <mergeCell ref="B6:B8"/>
@@ -2452,7 +2530,8 @@
     <mergeCell ref="G6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B65" r:id="rId1" xr:uid="{0A153FDA-E3A9-4294-A2DC-B7CB53E079FE}"/>
+    <hyperlink ref="B67" r:id="rId1" xr:uid="{0A153FDA-E3A9-4294-A2DC-B7CB53E079FE}"/>
+    <hyperlink ref="B60" r:id="rId2" xr:uid="{E22D1C72-2ECE-42DE-BDBB-9AEAA5D246DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
